--- a/docs/test_programs_descriptions/csharp_programs.xlsx
+++ b/docs/test_programs_descriptions/csharp_programs.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>A simple calculator.</t>
+  </si>
+  <si>
+    <t>say_hello</t>
+  </si>
+  <si>
+    <t>Writes out a hello message with the name from the standard input.</t>
   </si>
 </sst>
 </file>
@@ -444,7 +450,7 @@
   <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -489,9 +495,15 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
